--- a/Database Table Information.xlsx
+++ b/Database Table Information.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095" tabRatio="896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095" tabRatio="896" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pitchfx" sheetId="25" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId2"/>
-    <sheet name="Lahman" sheetId="29" r:id="rId3"/>
+    <sheet name="Lahman" sheetId="29" r:id="rId2"/>
+    <sheet name="RetroSheet" sheetId="31" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="711">
   <si>
     <t>x</t>
   </si>
@@ -2084,59 +2084,83 @@
     <t>INCORRECT SUFFIX</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>EP</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>FT</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>KC</t>
-  </si>
-  <si>
-    <t>KN</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>UN</t>
+    <t>Unknown event</t>
+  </si>
+  <si>
+    <t>No event</t>
+  </si>
+  <si>
+    <t>Generic out</t>
+  </si>
+  <si>
+    <t>Strikeout</t>
+  </si>
+  <si>
+    <t>Stolen base</t>
+  </si>
+  <si>
+    <t>Defensive indifference</t>
+  </si>
+  <si>
+    <t>Pickoff error</t>
+  </si>
+  <si>
+    <t>Pickoff</t>
+  </si>
+  <si>
+    <t>Wild pitch</t>
+  </si>
+  <si>
+    <t>Passed ball</t>
+  </si>
+  <si>
+    <t>Balk</t>
+  </si>
+  <si>
+    <t>Other advance</t>
+  </si>
+  <si>
+    <t>Foul error</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Intentional walk</t>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Fielder's choice</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Triple</t>
+  </si>
+  <si>
+    <t>Home run</t>
+  </si>
+  <si>
+    <t>Missing play</t>
+  </si>
+  <si>
+    <t>Event Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2357,6 +2381,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
@@ -2759,7 +2791,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2810,8 +2842,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2842,15 +2875,18 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" hidden="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" hidden="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" hidden="1"/>
@@ -2895,6 +2931,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="15" builtinId="10" hidden="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" hidden="1"/>
+    <cellStyle name="Percent" xfId="50" builtinId="5"/>
     <cellStyle name="Table content" xfId="44"/>
     <cellStyle name="Table header" xfId="43"/>
     <cellStyle name="Table result" xfId="45"/>
@@ -2968,7 +3005,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3467,14 +3504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O327"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView showGridLines="0" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4313,7 +4352,7 @@
       </c>
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:14">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +4360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:14">
       <c r="A114" s="9" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4368,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:14">
       <c r="A115" s="9" t="s">
         <v>13</v>
       </c>
@@ -4337,13 +4376,13 @@
         <v>623</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:14">
       <c r="A116" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B116" s="9"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:14">
       <c r="A117" s="19" t="s">
         <v>15</v>
       </c>
@@ -4351,7 +4390,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:14">
       <c r="A118" s="9" t="s">
         <v>77</v>
       </c>
@@ -4359,7 +4398,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:14">
       <c r="A119" s="9" t="s">
         <v>78</v>
       </c>
@@ -4367,985 +4406,1963 @@
         <v>656</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:14">
       <c r="A120" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="24"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="24"/>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="I121" s="25"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="24"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="I122" s="25"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="I123" s="25"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="24"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="24"/>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="24"/>
+      <c r="M124" s="24"/>
+      <c r="N124" s="24"/>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B125" s="9"/>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="24"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="24"/>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="24"/>
+      <c r="N126" s="24"/>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="I128" s="25"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="24"/>
+      <c r="M128" s="24"/>
+      <c r="N128" s="24"/>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="I129" s="25"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="24"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="I130" s="25"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="I131" s="25"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="24"/>
+      <c r="M131" s="27"/>
+      <c r="N131" s="27"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="I132" s="25"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="24"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="I133" s="25"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B134" s="9"/>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="I134" s="25"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="24"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B135" s="9"/>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="I135" s="25"/>
+      <c r="J135" s="24"/>
+      <c r="K135" s="24"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="9"/>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="I136" s="25"/>
+      <c r="J136" s="24"/>
+      <c r="K136" s="24"/>
+      <c r="L136" s="24"/>
+      <c r="M136" s="27"/>
+      <c r="N136" s="27"/>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B137" s="9"/>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="I137" s="25"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="24"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="27"/>
+      <c r="N137" s="27"/>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B138" s="9"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="9" t="s">
+      <c r="I138" s="25"/>
+      <c r="J138" s="24"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="24"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="9"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="9" t="s">
+      <c r="B139" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="I139" s="25"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="24"/>
+      <c r="M139" s="27"/>
+      <c r="N139" s="27"/>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="B140" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I140" s="25"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="24"/>
+      <c r="L140" s="24"/>
+      <c r="M140" s="27"/>
+      <c r="N140" s="27"/>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B141" s="9"/>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="I141" s="25"/>
+      <c r="J141" s="24"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="27"/>
+      <c r="N141" s="27"/>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="I142" s="25"/>
+      <c r="J142" s="24"/>
+      <c r="K142" s="24"/>
+      <c r="L142" s="24"/>
+      <c r="M142" s="27"/>
+      <c r="N142" s="27"/>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="I143" s="25"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="24"/>
+      <c r="L143" s="24"/>
+      <c r="M143" s="27"/>
+      <c r="N143" s="27"/>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="I144" s="25"/>
+      <c r="J144" s="24"/>
+      <c r="K144" s="24"/>
+      <c r="L144" s="24"/>
+      <c r="M144" s="27"/>
+      <c r="N144" s="27"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="I145" s="25"/>
+      <c r="J145" s="24"/>
+      <c r="K145" s="24"/>
+      <c r="L145" s="24"/>
+      <c r="M145" s="27"/>
+      <c r="N145" s="27"/>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="I146" s="25"/>
+      <c r="J146" s="24"/>
+      <c r="K146" s="24"/>
+      <c r="L146" s="24"/>
+      <c r="M146" s="27"/>
+      <c r="N146" s="27"/>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B147" s="9"/>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="I147" s="24"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="24"/>
+      <c r="L147" s="24"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="24"/>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="9"/>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="I148" s="24"/>
+      <c r="J148" s="24"/>
+      <c r="K148" s="24"/>
+      <c r="L148" s="24"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="24"/>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B149" s="9"/>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="I149" s="25"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="24"/>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B150" s="9"/>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="I150" s="25"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="27"/>
+      <c r="N150" s="24"/>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B151" s="9"/>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="I151" s="26"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="24"/>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B152" s="9"/>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="I152" s="26"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="24"/>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B153" s="9"/>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="I153" s="25"/>
+      <c r="J153" s="24"/>
+      <c r="K153" s="24"/>
+      <c r="L153" s="24"/>
+      <c r="M153" s="27"/>
+      <c r="N153" s="24"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="I154" s="25"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="27"/>
+      <c r="N154" s="24"/>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B155" s="11"/>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="I155" s="25"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="27"/>
+      <c r="N155" s="24"/>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B156" s="9"/>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="I156" s="25"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="24"/>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="I157" s="25"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="27"/>
+      <c r="N157" s="24"/>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B158" s="9"/>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="I158" s="25"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="24"/>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B159" s="9"/>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="I159" s="25"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="27"/>
+      <c r="N159" s="24"/>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B160" s="9"/>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="I160" s="25"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="27"/>
+      <c r="N160" s="24"/>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B161" s="9"/>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="I161" s="26"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="24"/>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B162" s="9"/>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="I162" s="26"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="24"/>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="I163" s="25"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="27"/>
+      <c r="N163" s="24"/>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B164" s="9"/>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="I164" s="25"/>
+      <c r="J164" s="24"/>
+      <c r="K164" s="24"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="27"/>
+      <c r="N164" s="24"/>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B165" s="9"/>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="I165" s="25"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="27"/>
+      <c r="N165" s="24"/>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="I166" s="26"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="24"/>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="I167" s="25"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="27"/>
+      <c r="N167" s="24"/>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="I168" s="24"/>
+      <c r="J168" s="24"/>
+      <c r="K168" s="24"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="24"/>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B169" s="9"/>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="I169" s="24"/>
+      <c r="J169" s="24"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="24"/>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B170" s="9"/>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="I170" s="24"/>
+      <c r="J170" s="24"/>
+      <c r="K170" s="24"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="24"/>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B171" s="9"/>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="I171" s="24"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="24"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="24"/>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B172" s="9"/>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="24"/>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B173" s="9"/>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="24"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="24"/>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="I174" s="24"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="24"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="24"/>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="I175" s="24"/>
+      <c r="J175" s="24"/>
+      <c r="K175" s="24"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="24"/>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="I176" s="24"/>
+      <c r="J176" s="24"/>
+      <c r="K176" s="24"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="24"/>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B177" s="9"/>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="I177" s="24"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="24"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="24"/>
+      <c r="N177" s="24"/>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B178" s="9"/>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="I178" s="24"/>
+      <c r="J178" s="24"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="24"/>
+      <c r="N178" s="24"/>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B179" s="9"/>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="I179" s="24"/>
+      <c r="J179" s="24"/>
+      <c r="K179" s="24"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="24"/>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="I180" s="24"/>
+      <c r="J180" s="24"/>
+      <c r="K180" s="24"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="24"/>
+      <c r="N180" s="24"/>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B181" s="9"/>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="I181" s="24"/>
+      <c r="J181" s="24"/>
+      <c r="K181" s="24"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="24"/>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B182" s="9"/>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="24"/>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B183" s="9"/>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
+      <c r="N183" s="24"/>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B184" s="9"/>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="I184" s="24"/>
+      <c r="J184" s="24"/>
+      <c r="K184" s="24"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="24"/>
+      <c r="N184" s="24"/>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B185" s="9"/>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="24"/>
+      <c r="N185" s="24"/>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B186" s="9"/>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="I186" s="24"/>
+      <c r="J186" s="24"/>
+      <c r="K186" s="24"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="24"/>
+      <c r="N186" s="24"/>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B187" s="9"/>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="I187" s="24"/>
+      <c r="J187" s="24"/>
+      <c r="K187" s="24"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="24"/>
+      <c r="N187" s="24"/>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B188" s="9"/>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="I188" s="24"/>
+      <c r="J188" s="24"/>
+      <c r="K188" s="24"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="24"/>
+      <c r="N188" s="24"/>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B189" s="9"/>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="I189" s="24"/>
+      <c r="J189" s="24"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
+      <c r="N189" s="24"/>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="I190" s="24"/>
+      <c r="J190" s="24"/>
+      <c r="K190" s="24"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="24"/>
+      <c r="N190" s="24"/>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B191" s="9"/>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="I191" s="24"/>
+      <c r="J191" s="24"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="24"/>
+      <c r="M191" s="24"/>
+      <c r="N191" s="24"/>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="24"/>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B193" s="9"/>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="I193" s="24"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="24"/>
+      <c r="L193" s="24"/>
+      <c r="M193" s="24"/>
+      <c r="N193" s="24"/>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B194" s="9"/>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="I194" s="24"/>
+      <c r="J194" s="24"/>
+      <c r="K194" s="24"/>
+      <c r="L194" s="24"/>
+      <c r="M194" s="24"/>
+      <c r="N194" s="24"/>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="I195" s="24"/>
+      <c r="J195" s="24"/>
+      <c r="K195" s="24"/>
+      <c r="L195" s="24"/>
+      <c r="M195" s="24"/>
+      <c r="N195" s="24"/>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B196" s="11"/>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="I196" s="24"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="24"/>
+      <c r="L196" s="24"/>
+      <c r="M196" s="24"/>
+      <c r="N196" s="24"/>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B197" s="9"/>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
+      <c r="K197" s="24"/>
+      <c r="L197" s="24"/>
+      <c r="M197" s="24"/>
+      <c r="N197" s="24"/>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="I198" s="24"/>
+      <c r="J198" s="24"/>
+      <c r="K198" s="24"/>
+      <c r="L198" s="24"/>
+      <c r="M198" s="24"/>
+      <c r="N198" s="24"/>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B199" s="9"/>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="I199" s="24"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="24"/>
+      <c r="M199" s="24"/>
+      <c r="N199" s="24"/>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B200" s="9"/>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="I200" s="24"/>
+      <c r="J200" s="24"/>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
+      <c r="N200" s="24"/>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B201" s="9"/>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="I201" s="24"/>
+      <c r="J201" s="24"/>
+      <c r="K201" s="24"/>
+      <c r="L201" s="24"/>
+      <c r="M201" s="24"/>
+      <c r="N201" s="24"/>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B202" s="9"/>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="I202" s="24"/>
+      <c r="J202" s="24"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="24"/>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B203" s="9"/>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="24"/>
+      <c r="N203" s="24"/>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="I204" s="24"/>
+      <c r="J204" s="24"/>
+      <c r="K204" s="24"/>
+      <c r="L204" s="24"/>
+      <c r="M204" s="24"/>
+      <c r="N204" s="24"/>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B205" s="16"/>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="I205" s="24"/>
+      <c r="J205" s="24"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
+      <c r="N205" s="24"/>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="I206" s="24"/>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="24"/>
+      <c r="M206" s="24"/>
+      <c r="N206" s="24"/>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B207" s="9"/>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="I207" s="24"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="24"/>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="I208" s="24"/>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="24"/>
+      <c r="M208" s="24"/>
+      <c r="N208" s="24"/>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B209" s="9"/>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="I209" s="24"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="24"/>
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
+      <c r="N209" s="24"/>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="I210" s="24"/>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="24"/>
+      <c r="M210" s="24"/>
+      <c r="N210" s="24"/>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B211" s="9"/>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+      <c r="N211" s="24"/>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="I212" s="24"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="24"/>
+      <c r="L212" s="24"/>
+      <c r="M212" s="24"/>
+      <c r="N212" s="24"/>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B213" s="9"/>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="I213" s="24"/>
+      <c r="J213" s="24"/>
+      <c r="K213" s="24"/>
+      <c r="L213" s="24"/>
+      <c r="M213" s="24"/>
+      <c r="N213" s="24"/>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B214" s="9"/>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="I214" s="24"/>
+      <c r="J214" s="24"/>
+      <c r="K214" s="24"/>
+      <c r="L214" s="24"/>
+      <c r="M214" s="24"/>
+      <c r="N214" s="24"/>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="I215" s="24"/>
+      <c r="J215" s="24"/>
+      <c r="K215" s="24"/>
+      <c r="L215" s="24"/>
+      <c r="M215" s="24"/>
+      <c r="N215" s="24"/>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B216" s="9"/>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="I216" s="24"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="24"/>
+      <c r="L216" s="24"/>
+      <c r="M216" s="24"/>
+      <c r="N216" s="24"/>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B217" s="9"/>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="I217" s="24"/>
+      <c r="J217" s="24"/>
+      <c r="K217" s="24"/>
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+      <c r="N217" s="24"/>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B218" s="9"/>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="I218" s="24"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="24"/>
+      <c r="L218" s="24"/>
+      <c r="M218" s="24"/>
+      <c r="N218" s="24"/>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B219" s="9"/>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="I219" s="24"/>
+      <c r="J219" s="24"/>
+      <c r="K219" s="24"/>
+      <c r="L219" s="24"/>
+      <c r="M219" s="24"/>
+      <c r="N219" s="24"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="I220" s="24"/>
+      <c r="J220" s="24"/>
+      <c r="K220" s="24"/>
+      <c r="L220" s="24"/>
+      <c r="M220" s="24"/>
+      <c r="N220" s="24"/>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="16"/>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="I221" s="24"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="24"/>
+      <c r="M221" s="24"/>
+      <c r="N221" s="24"/>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B222" s="9"/>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="I222" s="24"/>
+      <c r="J222" s="24"/>
+      <c r="K222" s="24"/>
+      <c r="L222" s="24"/>
+      <c r="M222" s="24"/>
+      <c r="N222" s="24"/>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B223" s="9"/>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="I223" s="24"/>
+      <c r="J223" s="24"/>
+      <c r="K223" s="24"/>
+      <c r="L223" s="24"/>
+      <c r="M223" s="24"/>
+      <c r="N223" s="24"/>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B224" s="9"/>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="I224" s="24"/>
+      <c r="J224" s="24"/>
+      <c r="K224" s="24"/>
+      <c r="L224" s="24"/>
+      <c r="M224" s="24"/>
+      <c r="N224" s="24"/>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B225" s="9"/>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="I225" s="24"/>
+      <c r="J225" s="24"/>
+      <c r="K225" s="24"/>
+      <c r="L225" s="24"/>
+      <c r="M225" s="24"/>
+      <c r="N225" s="24"/>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B226" s="9"/>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="I226" s="24"/>
+      <c r="J226" s="24"/>
+      <c r="K226" s="24"/>
+      <c r="L226" s="24"/>
+      <c r="M226" s="24"/>
+      <c r="N226" s="24"/>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B227" s="9"/>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="I227" s="24"/>
+      <c r="J227" s="24"/>
+      <c r="K227" s="24"/>
+      <c r="L227" s="24"/>
+      <c r="M227" s="24"/>
+      <c r="N227" s="24"/>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B228" s="9"/>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="I228" s="24"/>
+      <c r="J228" s="24"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="24"/>
+      <c r="M228" s="24"/>
+      <c r="N228" s="24"/>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B229" s="9"/>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="I229" s="24"/>
+      <c r="J229" s="24"/>
+      <c r="K229" s="24"/>
+      <c r="L229" s="24"/>
+      <c r="M229" s="24"/>
+      <c r="N229" s="24"/>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B230" s="9"/>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="I230" s="24"/>
+      <c r="J230" s="24"/>
+      <c r="K230" s="24"/>
+      <c r="L230" s="24"/>
+      <c r="M230" s="24"/>
+      <c r="N230" s="24"/>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B231" s="9"/>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="I231" s="24"/>
+      <c r="J231" s="24"/>
+      <c r="K231" s="24"/>
+      <c r="L231" s="24"/>
+      <c r="M231" s="24"/>
+      <c r="N231" s="24"/>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B232" s="9"/>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="I232" s="24"/>
+      <c r="J232" s="24"/>
+      <c r="K232" s="24"/>
+      <c r="L232" s="24"/>
+      <c r="M232" s="24"/>
+      <c r="N232" s="24"/>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B233" s="9"/>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="I233" s="24"/>
+      <c r="J233" s="24"/>
+      <c r="K233" s="24"/>
+      <c r="L233" s="24"/>
+      <c r="M233" s="24"/>
+      <c r="N233" s="24"/>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B234" s="9"/>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="I234" s="24"/>
+      <c r="J234" s="24"/>
+      <c r="K234" s="24"/>
+      <c r="L234" s="24"/>
+      <c r="M234" s="24"/>
+      <c r="N234" s="24"/>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B235" s="9"/>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="I235" s="24"/>
+      <c r="J235" s="24"/>
+      <c r="K235" s="24"/>
+      <c r="L235" s="24"/>
+      <c r="M235" s="24"/>
+      <c r="N235" s="24"/>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B236" s="9"/>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="24"/>
+      <c r="L236" s="24"/>
+      <c r="M236" s="24"/>
+      <c r="N236" s="24"/>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B237" s="9"/>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="I237" s="24"/>
+      <c r="J237" s="24"/>
+      <c r="K237" s="24"/>
+      <c r="L237" s="24"/>
+      <c r="M237" s="24"/>
+      <c r="N237" s="24"/>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B238" s="9"/>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="I238" s="24"/>
+      <c r="J238" s="24"/>
+      <c r="K238" s="24"/>
+      <c r="L238" s="24"/>
+      <c r="M238" s="24"/>
+      <c r="N238" s="24"/>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B239" s="9"/>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="I239" s="24"/>
+      <c r="J239" s="24"/>
+      <c r="K239" s="24"/>
+      <c r="L239" s="24"/>
+      <c r="M239" s="24"/>
+      <c r="N239" s="24"/>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B240" s="9"/>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="I240" s="24"/>
+      <c r="J240" s="24"/>
+      <c r="K240" s="24"/>
+      <c r="L240" s="24"/>
+      <c r="M240" s="24"/>
+      <c r="N240" s="24"/>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B241" s="9"/>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="I241" s="24"/>
+      <c r="J241" s="24"/>
+      <c r="K241" s="24"/>
+      <c r="L241" s="24"/>
+      <c r="M241" s="24"/>
+      <c r="N241" s="24"/>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B242" s="9"/>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="I242" s="24"/>
+      <c r="J242" s="24"/>
+      <c r="K242" s="24"/>
+      <c r="L242" s="24"/>
+      <c r="M242" s="24"/>
+      <c r="N242" s="24"/>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B243" s="9"/>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="I243" s="24"/>
+      <c r="J243" s="24"/>
+      <c r="K243" s="24"/>
+      <c r="L243" s="24"/>
+      <c r="M243" s="24"/>
+      <c r="N243" s="24"/>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B244" s="9"/>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="I244" s="24"/>
+      <c r="J244" s="24"/>
+      <c r="K244" s="24"/>
+      <c r="L244" s="24"/>
+      <c r="M244" s="24"/>
+      <c r="N244" s="24"/>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B245" s="9"/>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="I245" s="24"/>
+      <c r="J245" s="24"/>
+      <c r="K245" s="24"/>
+      <c r="L245" s="24"/>
+      <c r="M245" s="24"/>
+      <c r="N245" s="24"/>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B246" s="9"/>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="I246" s="24"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="24"/>
+      <c r="M246" s="24"/>
+      <c r="N246" s="24"/>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B247" s="9"/>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="24"/>
+      <c r="L247" s="24"/>
+      <c r="M247" s="24"/>
+      <c r="N247" s="24"/>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B248" s="9"/>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="24"/>
+      <c r="L248" s="24"/>
+      <c r="M248" s="24"/>
+      <c r="N248" s="24"/>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B249" s="9"/>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="24"/>
+      <c r="L249" s="24"/>
+      <c r="M249" s="24"/>
+      <c r="N249" s="24"/>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B250" s="9"/>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="24"/>
+      <c r="L250" s="24"/>
+      <c r="M250" s="24"/>
+      <c r="N250" s="24"/>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B251" s="9"/>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="24"/>
+      <c r="L251" s="24"/>
+      <c r="M251" s="24"/>
+      <c r="N251" s="24"/>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B252" s="9"/>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="24"/>
+      <c r="L252" s="24"/>
+      <c r="M252" s="24"/>
+      <c r="N252" s="24"/>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B253" s="9"/>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="24"/>
+      <c r="L253" s="24"/>
+      <c r="M253" s="24"/>
+      <c r="N253" s="24"/>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B254" s="9"/>
-    </row>
-    <row r="255" spans="1:2">
+      <c r="I254" s="24"/>
+      <c r="J254" s="24"/>
+      <c r="K254" s="24"/>
+      <c r="L254" s="24"/>
+      <c r="M254" s="24"/>
+      <c r="N254" s="24"/>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B255" s="9"/>
-    </row>
-    <row r="256" spans="1:2">
+      <c r="I255" s="24"/>
+      <c r="J255" s="24"/>
+      <c r="K255" s="24"/>
+      <c r="L255" s="24"/>
+      <c r="M255" s="24"/>
+      <c r="N255" s="24"/>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B256" s="9"/>
-    </row>
-    <row r="257" spans="1:2">
+      <c r="I256" s="24"/>
+      <c r="J256" s="24"/>
+      <c r="K256" s="24"/>
+      <c r="L256" s="24"/>
+      <c r="M256" s="24"/>
+      <c r="N256" s="24"/>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" s="9" t="s">
         <v>157</v>
       </c>
       <c r="B257" s="9"/>
-    </row>
-    <row r="258" spans="1:2">
+      <c r="I257" s="24"/>
+      <c r="J257" s="24"/>
+      <c r="K257" s="24"/>
+      <c r="L257" s="24"/>
+      <c r="M257" s="24"/>
+      <c r="N257" s="24"/>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B258" s="9"/>
-    </row>
-    <row r="259" spans="1:2">
+      <c r="I258" s="24"/>
+      <c r="J258" s="24"/>
+      <c r="K258" s="24"/>
+      <c r="L258" s="24"/>
+      <c r="M258" s="24"/>
+      <c r="N258" s="24"/>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B259" s="9"/>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="I259" s="24"/>
+      <c r="J259" s="24"/>
+      <c r="K259" s="24"/>
+      <c r="L259" s="24"/>
+      <c r="M259" s="24"/>
+      <c r="N259" s="24"/>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B260" s="9"/>
-    </row>
-    <row r="261" spans="1:2">
+      <c r="I260" s="24"/>
+      <c r="J260" s="24"/>
+      <c r="K260" s="24"/>
+      <c r="L260" s="24"/>
+      <c r="M260" s="24"/>
+      <c r="N260" s="24"/>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B261" s="9"/>
-    </row>
-    <row r="262" spans="1:2">
+      <c r="I261" s="24"/>
+      <c r="J261" s="24"/>
+      <c r="K261" s="24"/>
+      <c r="L261" s="24"/>
+      <c r="M261" s="24"/>
+      <c r="N261" s="24"/>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B262" s="9"/>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="I262" s="24"/>
+      <c r="J262" s="24"/>
+      <c r="K262" s="24"/>
+      <c r="L262" s="24"/>
+      <c r="M262" s="24"/>
+      <c r="N262" s="24"/>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B263" s="9"/>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="I263" s="24"/>
+      <c r="J263" s="24"/>
+      <c r="K263" s="24"/>
+      <c r="L263" s="24"/>
+      <c r="M263" s="24"/>
+      <c r="N263" s="24"/>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B264" s="9"/>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="I264" s="24"/>
+      <c r="J264" s="24"/>
+      <c r="K264" s="24"/>
+      <c r="L264" s="24"/>
+      <c r="M264" s="24"/>
+      <c r="N264" s="24"/>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B265" s="9"/>
-    </row>
-    <row r="266" spans="1:2">
+      <c r="I265" s="24"/>
+      <c r="J265" s="24"/>
+      <c r="K265" s="24"/>
+      <c r="L265" s="24"/>
+      <c r="M265" s="24"/>
+      <c r="N265" s="24"/>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B266" s="9"/>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="I266" s="24"/>
+      <c r="J266" s="24"/>
+      <c r="K266" s="24"/>
+      <c r="L266" s="24"/>
+      <c r="M266" s="24"/>
+      <c r="N266" s="24"/>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B267" s="9"/>
-    </row>
-    <row r="268" spans="1:2">
+      <c r="I267" s="24"/>
+      <c r="J267" s="24"/>
+      <c r="K267" s="24"/>
+      <c r="L267" s="24"/>
+      <c r="M267" s="24"/>
+      <c r="N267" s="24"/>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B268" s="9"/>
-    </row>
-    <row r="269" spans="1:2">
+      <c r="I268" s="24"/>
+      <c r="J268" s="24"/>
+      <c r="K268" s="24"/>
+      <c r="L268" s="24"/>
+      <c r="M268" s="24"/>
+      <c r="N268" s="24"/>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B269" s="9"/>
-    </row>
-    <row r="270" spans="1:2">
+      <c r="I269" s="24"/>
+      <c r="J269" s="24"/>
+      <c r="K269" s="24"/>
+      <c r="L269" s="24"/>
+      <c r="M269" s="24"/>
+      <c r="N269" s="24"/>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B270" s="9"/>
-    </row>
-    <row r="271" spans="1:2">
+      <c r="I270" s="24"/>
+      <c r="J270" s="24"/>
+      <c r="K270" s="24"/>
+      <c r="L270" s="24"/>
+      <c r="M270" s="24"/>
+      <c r="N270" s="24"/>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B271" s="9"/>
-    </row>
-    <row r="272" spans="1:2">
+      <c r="I271" s="24"/>
+      <c r="J271" s="24"/>
+      <c r="K271" s="24"/>
+      <c r="L271" s="24"/>
+      <c r="M271" s="24"/>
+      <c r="N271" s="24"/>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B272" s="9"/>
-    </row>
-    <row r="273" spans="1:2">
+      <c r="I272" s="24"/>
+      <c r="J272" s="24"/>
+      <c r="K272" s="24"/>
+      <c r="L272" s="24"/>
+      <c r="M272" s="24"/>
+      <c r="N272" s="24"/>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B273" s="9"/>
-    </row>
-    <row r="274" spans="1:2">
+      <c r="I273" s="24"/>
+      <c r="J273" s="24"/>
+      <c r="K273" s="24"/>
+      <c r="L273" s="24"/>
+      <c r="M273" s="24"/>
+      <c r="N273" s="24"/>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B274" s="9"/>
-    </row>
-    <row r="275" spans="1:2">
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="24"/>
+      <c r="L274" s="24"/>
+      <c r="M274" s="24"/>
+      <c r="N274" s="24"/>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B275" s="9"/>
-    </row>
-    <row r="276" spans="1:2">
+      <c r="I275" s="24"/>
+      <c r="J275" s="24"/>
+      <c r="K275" s="24"/>
+      <c r="L275" s="24"/>
+      <c r="M275" s="24"/>
+      <c r="N275" s="24"/>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="277" spans="1:2">
+      <c r="I276" s="24"/>
+      <c r="J276" s="24"/>
+      <c r="K276" s="24"/>
+      <c r="L276" s="24"/>
+      <c r="M276" s="24"/>
+      <c r="N276" s="24"/>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B277" s="9"/>
-    </row>
-    <row r="278" spans="1:2">
+      <c r="I277" s="24"/>
+      <c r="J277" s="24"/>
+      <c r="K277" s="24"/>
+      <c r="L277" s="24"/>
+      <c r="M277" s="24"/>
+      <c r="N277" s="24"/>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B278" s="9"/>
-    </row>
-    <row r="279" spans="1:2">
+      <c r="I278" s="24"/>
+      <c r="J278" s="24"/>
+      <c r="K278" s="24"/>
+      <c r="L278" s="24"/>
+      <c r="M278" s="24"/>
+      <c r="N278" s="24"/>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" s="9" t="s">
         <v>178</v>
       </c>
       <c r="B279" s="9"/>
-    </row>
-    <row r="280" spans="1:2">
+      <c r="I279" s="24"/>
+      <c r="J279" s="24"/>
+      <c r="K279" s="24"/>
+      <c r="L279" s="24"/>
+      <c r="M279" s="24"/>
+      <c r="N279" s="24"/>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" s="9" t="s">
         <v>179</v>
       </c>
       <c r="B280" s="9"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:14">
       <c r="A281" s="9" t="s">
         <v>180</v>
       </c>
       <c r="B281" s="9"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:14">
       <c r="A282" s="9" t="s">
         <v>181</v>
       </c>
       <c r="B282" s="9"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:14">
       <c r="A283" s="9" t="s">
         <v>182</v>
       </c>
       <c r="B283" s="9"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:14">
       <c r="A284" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B284" s="9"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:14">
       <c r="A285" s="9" t="s">
         <v>183</v>
       </c>
       <c r="B285" s="9"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:14">
       <c r="A286" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B286" s="9"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:14">
       <c r="A287" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B287" s="9"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:14">
       <c r="A288" s="9" t="s">
         <v>18</v>
       </c>
@@ -5593,252 +6610,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="A32:E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="24"/>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
-        <v>687</v>
-      </c>
-      <c r="B3">
-        <v>283545</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="B4">
-        <v>223660</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
-        <v>689</v>
-      </c>
-      <c r="B5">
-        <v>535</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
-        <v>146208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
-        <v>962441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1972</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>41255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
-        <v>298979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12">
-        <v>15258</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="B13">
-        <v>25418</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="B14">
-        <v>15113</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>2205</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="B16">
-        <v>474</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
-        <v>381111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="B18">
-        <v>413190</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="24" t="s">
-        <v>702</v>
-      </c>
-      <c r="B19">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="B21">
-        <f>SUM(B2:B19)</f>
-        <v>981437</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C2:C19)</f>
-        <v>1830717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="B22">
-        <f>B21/SUM(B21:C21)</f>
-        <v>0.34899831232571188</v>
-      </c>
-      <c r="C22">
-        <f>C21/SUM(B21:C21)</f>
-        <v>0.65100168767428812</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B423"/>
   <sheetViews>
@@ -9016,16 +9787,234 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f2684793-112f-4fec-9fa7-c952a73f86d3">
@@ -9087,7 +10076,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ExpertContentDocumentLibrary" ma:contentTypeID="0x010100D0AFC36ACFD74F7BA0C77049996D405C00FF49417D29D72E4D9B5054C9AC26121A" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="6360a5f94c527d9e7ec2ba7d0336b460">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="92833d98-8015-4e73-bff4-7fc7bdc77146" xmlns:ns3="72acfbc7-13d6-4e32-8fe0-794e2d8bf5d1" xmlns:ns4="f2684793-112f-4fec-9fa7-c952a73f86d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd616222a85d58f18a73fd7fa601ae7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="92833d98-8015-4e73-bff4-7fc7bdc77146"/>
@@ -9306,20 +10295,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8fb135ec-df78-4771-b246-ee3879de3bc6" ContentTypeId="0x010100D0AFC36ACFD74F7BA0C77049996D405C" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF09A26-9023-4798-A4A9-90737409C1AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F480E75-6D1D-44D0-B504-9E00170BB20C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9337,7 +10327,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{362E6889-D0FC-42B3-ADE6-8BEB21269DB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9357,10 +10347,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE0621-2CCE-4417-AFBF-BE5B8A71D39B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDF09A26-9023-4798-A4A9-90737409C1AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>